--- a/results/pvalue_OFFSIDES_all_transporter_AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_all_transporter_AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.887</t>
+          <t>7.272</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.352</t>
+          <t>9.037</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.167</t>
+          <t>8.903</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.098</t>
+          <t>5.373</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17.791</t>
+          <t>17.119</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
